--- a/Code/Results/Cases/Case_3_186/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_186/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000792459908895</v>
+        <v>1.037247498688274</v>
       </c>
       <c r="D2">
-        <v>1.019776023425921</v>
+        <v>1.040038911576404</v>
       </c>
       <c r="E2">
-        <v>1.015607315597159</v>
+        <v>1.046185339492755</v>
       </c>
       <c r="F2">
-        <v>1.023647728872755</v>
+        <v>1.057464861272936</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047531113846812</v>
+        <v>1.037404451523114</v>
       </c>
       <c r="J2">
-        <v>1.022949494441743</v>
+        <v>1.04235140735136</v>
       </c>
       <c r="K2">
-        <v>1.03096655396946</v>
+        <v>1.042822392844397</v>
       </c>
       <c r="L2">
-        <v>1.026853414928128</v>
+        <v>1.048951483728923</v>
       </c>
       <c r="M2">
-        <v>1.034787157868176</v>
+        <v>1.060199757814831</v>
       </c>
       <c r="N2">
-        <v>1.011031565855914</v>
+        <v>1.017972340960573</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.006893913323275</v>
+        <v>1.038486082062498</v>
       </c>
       <c r="D3">
-        <v>1.024426332695218</v>
+        <v>1.040982579724296</v>
       </c>
       <c r="E3">
-        <v>1.020875997667989</v>
+        <v>1.04730713433842</v>
       </c>
       <c r="F3">
-        <v>1.029509964377319</v>
+        <v>1.058723065785535</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049557446484414</v>
+        <v>1.037712470755133</v>
       </c>
       <c r="J3">
-        <v>1.027198391424625</v>
+        <v>1.043232837882837</v>
       </c>
       <c r="K3">
-        <v>1.03475592969451</v>
+        <v>1.043576051588511</v>
       </c>
       <c r="L3">
-        <v>1.031248556315566</v>
+        <v>1.049884063743063</v>
       </c>
       <c r="M3">
-        <v>1.039778685311928</v>
+        <v>1.06127067532175</v>
       </c>
       <c r="N3">
-        <v>1.012495980702577</v>
+        <v>1.018271196780265</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010739728380056</v>
+        <v>1.039286984818398</v>
       </c>
       <c r="D4">
-        <v>1.027358071224187</v>
+        <v>1.041592381204417</v>
       </c>
       <c r="E4">
-        <v>1.024203225351923</v>
+        <v>1.04803285964516</v>
       </c>
       <c r="F4">
-        <v>1.033212385994557</v>
+        <v>1.059537152704852</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050819826642618</v>
+        <v>1.037909787517211</v>
       </c>
       <c r="J4">
-        <v>1.029872644191941</v>
+        <v>1.043802152602022</v>
       </c>
       <c r="K4">
-        <v>1.037137151082129</v>
+        <v>1.044062285126043</v>
       </c>
       <c r="L4">
-        <v>1.034018057533787</v>
+        <v>1.050486770549699</v>
       </c>
       <c r="M4">
-        <v>1.042925833624315</v>
+        <v>1.061963016229517</v>
       </c>
       <c r="N4">
-        <v>1.013417008879885</v>
+        <v>1.018464060556817</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.012333178685953</v>
+        <v>1.039623556814952</v>
       </c>
       <c r="D5">
-        <v>1.02857284550576</v>
+        <v>1.041848547778179</v>
       </c>
       <c r="E5">
-        <v>1.025583258257579</v>
+        <v>1.048337920084305</v>
       </c>
       <c r="F5">
-        <v>1.034748136800411</v>
+        <v>1.059879383568444</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051339250029072</v>
+        <v>1.037992263028824</v>
       </c>
       <c r="J5">
-        <v>1.030979694712783</v>
+        <v>1.044041247492964</v>
       </c>
       <c r="K5">
-        <v>1.038121959638148</v>
+        <v>1.044266355514999</v>
       </c>
       <c r="L5">
-        <v>1.035165304800591</v>
+        <v>1.050739974099959</v>
       </c>
       <c r="M5">
-        <v>1.044229964781811</v>
+        <v>1.062253931026522</v>
       </c>
       <c r="N5">
-        <v>1.013798110738524</v>
+        <v>1.018545017407291</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.012599389718509</v>
+        <v>1.039680061331485</v>
       </c>
       <c r="D6">
-        <v>1.028775793621714</v>
+        <v>1.041891547931129</v>
       </c>
       <c r="E6">
-        <v>1.025813898031494</v>
+        <v>1.048389139100642</v>
       </c>
       <c r="F6">
-        <v>1.035004807303018</v>
+        <v>1.059936845033516</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051425813080395</v>
+        <v>1.038006083104972</v>
       </c>
       <c r="J6">
-        <v>1.031164585745262</v>
+        <v>1.044081378253121</v>
       </c>
       <c r="K6">
-        <v>1.038286379006534</v>
+        <v>1.044300599797646</v>
       </c>
       <c r="L6">
-        <v>1.035356954271225</v>
+        <v>1.05078247790804</v>
       </c>
       <c r="M6">
-        <v>1.044447848273686</v>
+        <v>1.062302768430091</v>
       </c>
       <c r="N6">
-        <v>1.013861748949711</v>
+        <v>1.018558603213676</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.010761110357329</v>
+        <v>1.039291482607738</v>
       </c>
       <c r="D7">
-        <v>1.027374371761708</v>
+        <v>1.041595804875502</v>
       </c>
       <c r="E7">
-        <v>1.02422173789789</v>
+        <v>1.048036936011101</v>
       </c>
       <c r="F7">
-        <v>1.033232987021654</v>
+        <v>1.05954172565221</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050826811021598</v>
+        <v>1.037910891430572</v>
       </c>
       <c r="J7">
-        <v>1.029887503285023</v>
+        <v>1.043805348360539</v>
       </c>
       <c r="K7">
-        <v>1.037150373151282</v>
+        <v>1.044065013267762</v>
       </c>
       <c r="L7">
-        <v>1.034033453123315</v>
+        <v>1.050490154551282</v>
       </c>
       <c r="M7">
-        <v>1.042943332763153</v>
+        <v>1.061966904016119</v>
       </c>
       <c r="N7">
-        <v>1.013422124816944</v>
+        <v>1.018465142789306</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002876357453546</v>
+        <v>1.037666197840369</v>
       </c>
       <c r="D8">
-        <v>1.021364115566711</v>
+        <v>1.040357998058212</v>
       </c>
       <c r="E8">
-        <v>1.017405416242528</v>
+        <v>1.046564487576098</v>
       </c>
       <c r="F8">
-        <v>1.025648330570034</v>
+        <v>1.057890090094765</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04822627489345</v>
+        <v>1.037508960882382</v>
       </c>
       <c r="J8">
-        <v>1.024401450445761</v>
+        <v>1.042649505061393</v>
       </c>
       <c r="K8">
-        <v>1.032262268272629</v>
+        <v>1.043077392960677</v>
       </c>
       <c r="L8">
-        <v>1.028354670605303</v>
+        <v>1.04926680658232</v>
       </c>
       <c r="M8">
-        <v>1.036491734773834</v>
+        <v>1.060561807658061</v>
       </c>
       <c r="N8">
-        <v>1.011532128546108</v>
+        <v>1.018073447770037</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9881435330374697</v>
+        <v>1.034797959055134</v>
       </c>
       <c r="D9">
-        <v>1.010142956956865</v>
+        <v>1.038170531784059</v>
       </c>
       <c r="E9">
-        <v>1.004723188054778</v>
+        <v>1.043968613915968</v>
       </c>
       <c r="F9">
-        <v>1.011538811654971</v>
+        <v>1.054979180875856</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043250593093403</v>
+        <v>1.036785426433533</v>
       </c>
       <c r="J9">
-        <v>1.014122034805537</v>
+        <v>1.040604806225259</v>
       </c>
       <c r="K9">
-        <v>1.023073587649773</v>
+        <v>1.041326045227452</v>
       </c>
       <c r="L9">
-        <v>1.017740096823097</v>
+        <v>1.047105414305955</v>
       </c>
       <c r="M9">
-        <v>1.024447413168543</v>
+        <v>1.058081064227437</v>
       </c>
       <c r="N9">
-        <v>1.007985878806594</v>
+        <v>1.017379260167118</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9776716841954877</v>
+        <v>1.032882756908706</v>
       </c>
       <c r="D10">
-        <v>1.002179968974431</v>
+        <v>1.03670791527883</v>
       </c>
       <c r="E10">
-        <v>0.9957509042286117</v>
+        <v>1.042237095696887</v>
       </c>
       <c r="F10">
-        <v>1.001557342356138</v>
+        <v>1.053038097385777</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039639146817987</v>
+        <v>1.036292761652366</v>
       </c>
       <c r="J10">
-        <v>1.006800078608913</v>
+        <v>1.039236226750822</v>
       </c>
       <c r="K10">
-        <v>1.016509974644286</v>
+        <v>1.040150986460655</v>
       </c>
       <c r="L10">
-        <v>1.010197303569933</v>
+        <v>1.045660556879343</v>
       </c>
       <c r="M10">
-        <v>1.015898535320894</v>
+        <v>1.056423905314185</v>
       </c>
       <c r="N10">
-        <v>1.005457381285871</v>
+        <v>1.016913770226659</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.972961294069119</v>
+        <v>1.032052693821785</v>
       </c>
       <c r="D11">
-        <v>0.9986027817362002</v>
+        <v>1.036073547261255</v>
       </c>
       <c r="E11">
-        <v>0.9917263189058897</v>
+        <v>1.041487082368079</v>
       </c>
       <c r="F11">
-        <v>0.9970799865560467</v>
+        <v>1.052197443715698</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037997964189163</v>
+        <v>1.036076979136745</v>
       </c>
       <c r="J11">
-        <v>1.0035038405349</v>
+        <v>1.03864230213143</v>
       </c>
       <c r="K11">
-        <v>1.013551095737439</v>
+        <v>1.03964037818607</v>
       </c>
       <c r="L11">
-        <v>1.006805969831823</v>
+        <v>1.045033962880994</v>
       </c>
       <c r="M11">
-        <v>1.01205718094904</v>
+        <v>1.05570552129141</v>
       </c>
       <c r="N11">
-        <v>1.004318677647896</v>
+        <v>1.016711561338837</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9711831124468685</v>
+        <v>1.031744252715099</v>
       </c>
       <c r="D12">
-        <v>0.9972532420836691</v>
+        <v>1.035837756031035</v>
       </c>
       <c r="E12">
-        <v>0.9902088465298926</v>
+        <v>1.041208453541143</v>
       </c>
       <c r="F12">
-        <v>0.995391761738021</v>
+        <v>1.051885162040168</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037376002899835</v>
+        <v>1.03599645821302</v>
       </c>
       <c r="J12">
-        <v>1.002259186369886</v>
+        <v>1.038421491612389</v>
       </c>
       <c r="K12">
-        <v>1.012433255519025</v>
+        <v>1.039450443481675</v>
       </c>
       <c r="L12">
-        <v>1.005526064768588</v>
+        <v>1.044801071497493</v>
       </c>
       <c r="M12">
-        <v>1.010607784075947</v>
+        <v>1.055438555436301</v>
       </c>
       <c r="N12">
-        <v>1.003888660342693</v>
+        <v>1.016636353887137</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9715658655988031</v>
+        <v>1.031810419805635</v>
       </c>
       <c r="D13">
-        <v>0.9975436889454394</v>
+        <v>1.0358883412585</v>
       </c>
       <c r="E13">
-        <v>0.9905353979871511</v>
+        <v>1.041268222238441</v>
       </c>
       <c r="F13">
-        <v>0.9957550600910834</v>
+        <v>1.051952148715499</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037509987151334</v>
+        <v>1.036013746966529</v>
       </c>
       <c r="J13">
-        <v>1.002527110687221</v>
+        <v>1.038468865323137</v>
       </c>
       <c r="K13">
-        <v>1.012673907130552</v>
+        <v>1.039491197457727</v>
       </c>
       <c r="L13">
-        <v>1.005801547392299</v>
+        <v>1.044851034151331</v>
       </c>
       <c r="M13">
-        <v>1.010919731875139</v>
+        <v>1.055495826260129</v>
       </c>
       <c r="N13">
-        <v>1.003981227620922</v>
+        <v>1.016652490588448</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9728149039558155</v>
+        <v>1.032027200424902</v>
       </c>
       <c r="D14">
-        <v>0.9984916616018386</v>
+        <v>1.036054059931655</v>
       </c>
       <c r="E14">
-        <v>0.9916013542640009</v>
+        <v>1.041464051661182</v>
       </c>
       <c r="F14">
-        <v>0.9969409612000095</v>
+        <v>1.052171630950163</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037946809124299</v>
+        <v>1.036070330798237</v>
       </c>
       <c r="J14">
-        <v>1.003401379365952</v>
+        <v>1.038624053966518</v>
       </c>
       <c r="K14">
-        <v>1.013459085430163</v>
+        <v>1.039624683683416</v>
       </c>
       <c r="L14">
-        <v>1.006700593390133</v>
+        <v>1.04501471500658</v>
       </c>
       <c r="M14">
-        <v>1.011937842944044</v>
+        <v>1.055683456395455</v>
       </c>
       <c r="N14">
-        <v>1.004283279000132</v>
+        <v>1.016705346671517</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9735806305590859</v>
+        <v>1.032160750287488</v>
       </c>
       <c r="D15">
-        <v>0.9990729363517485</v>
+        <v>1.036156143596521</v>
       </c>
       <c r="E15">
-        <v>0.99225508475421</v>
+        <v>1.041584703200056</v>
       </c>
       <c r="F15">
-        <v>0.9976682462808265</v>
+        <v>1.052306857743021</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038214289745232</v>
+        <v>1.03610514495316</v>
       </c>
       <c r="J15">
-        <v>1.003937313316222</v>
+        <v>1.038719644185562</v>
       </c>
       <c r="K15">
-        <v>1.01394033197054</v>
+        <v>1.03970689285399</v>
       </c>
       <c r="L15">
-        <v>1.007251802762144</v>
+        <v>1.04511554471254</v>
       </c>
       <c r="M15">
-        <v>1.012562097447501</v>
+        <v>1.055799044741807</v>
       </c>
       <c r="N15">
-        <v>1.004468433647902</v>
+        <v>1.016737900035513</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.977980415534331</v>
+        <v>1.032937828997576</v>
       </c>
       <c r="D16">
-        <v>1.002414536869673</v>
+        <v>1.036749994029436</v>
       </c>
       <c r="E16">
-        <v>0.9960149301460013</v>
+        <v>1.042286866057828</v>
       </c>
       <c r="F16">
-        <v>1.001851067821176</v>
+        <v>1.053093885376495</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039746375776312</v>
+        <v>1.036307030627144</v>
       </c>
       <c r="J16">
-        <v>1.007016073790639</v>
+        <v>1.039275615571597</v>
       </c>
       <c r="K16">
-        <v>1.016703782526836</v>
+        <v>1.040184835787111</v>
       </c>
       <c r="L16">
-        <v>1.010419620428738</v>
+        <v>1.04570212143212</v>
       </c>
       <c r="M16">
-        <v>1.016150401171129</v>
+        <v>1.056471564549637</v>
       </c>
       <c r="N16">
-        <v>1.005531990905754</v>
+        <v>1.016927176445686</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9806917535884868</v>
+        <v>1.033425061990233</v>
       </c>
       <c r="D17">
-        <v>1.00447510430908</v>
+        <v>1.037122219674288</v>
       </c>
       <c r="E17">
-        <v>0.9983349470406943</v>
+        <v>1.042727244546185</v>
       </c>
       <c r="F17">
-        <v>1.004432044096165</v>
+        <v>1.053587524513196</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040686201446024</v>
+        <v>1.036433010236212</v>
       </c>
       <c r="J17">
-        <v>1.008912687770768</v>
+        <v>1.039624006704417</v>
       </c>
       <c r="K17">
-        <v>1.018405121086082</v>
+        <v>1.040484153694303</v>
       </c>
       <c r="L17">
-        <v>1.012372233787306</v>
+        <v>1.04606980671719</v>
       </c>
       <c r="M17">
-        <v>1.018362807236031</v>
+        <v>1.056893196383852</v>
       </c>
       <c r="N17">
-        <v>1.006187079739923</v>
+        <v>1.017045730438469</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9822564009873794</v>
+        <v>1.033709182886432</v>
       </c>
       <c r="D18">
-        <v>1.005664638636083</v>
+        <v>1.037339231840437</v>
       </c>
       <c r="E18">
-        <v>0.9996748276195425</v>
+        <v>1.042984085464424</v>
       </c>
       <c r="F18">
-        <v>1.005922629375084</v>
+        <v>1.053875441415153</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041226970297084</v>
+        <v>1.036506255153428</v>
       </c>
       <c r="J18">
-        <v>1.010006915340516</v>
+        <v>1.03982709007227</v>
       </c>
       <c r="K18">
-        <v>1.019386304206127</v>
+        <v>1.040658567195293</v>
       </c>
       <c r="L18">
-        <v>1.013499176323884</v>
+        <v>1.046284178722657</v>
       </c>
       <c r="M18">
-        <v>1.019639907685219</v>
+        <v>1.05713904782586</v>
       </c>
       <c r="N18">
-        <v>1.006564985111349</v>
+        <v>1.017114818431177</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9827871105547534</v>
+        <v>1.033806048341442</v>
       </c>
       <c r="D19">
-        <v>1.006068183133695</v>
+        <v>1.037413210340158</v>
       </c>
       <c r="E19">
-        <v>1.000129474520552</v>
+        <v>1.043071657508176</v>
       </c>
       <c r="F19">
-        <v>1.006428412603692</v>
+        <v>1.053973611266851</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041410121497885</v>
+        <v>1.036531189625843</v>
       </c>
       <c r="J19">
-        <v>1.010378017108711</v>
+        <v>1.039896314724269</v>
       </c>
       <c r="K19">
-        <v>1.019719001620372</v>
+        <v>1.040718008299637</v>
       </c>
       <c r="L19">
-        <v>1.013881442008141</v>
+        <v>1.046357258391848</v>
       </c>
       <c r="M19">
-        <v>1.020073145148211</v>
+        <v>1.057222863438641</v>
       </c>
       <c r="N19">
-        <v>1.006693142557993</v>
+        <v>1.017138365060792</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9804026079063682</v>
+        <v>1.033372794166961</v>
       </c>
       <c r="D20">
-        <v>1.004255313078159</v>
+        <v>1.03708229381968</v>
       </c>
       <c r="E20">
-        <v>0.9980874226697096</v>
+        <v>1.042679998643563</v>
       </c>
       <c r="F20">
-        <v>1.004156678673924</v>
+        <v>1.053534563221308</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040586139071218</v>
+        <v>1.036419518321889</v>
       </c>
       <c r="J20">
-        <v>1.008710453476716</v>
+        <v>1.039586640814569</v>
       </c>
       <c r="K20">
-        <v>1.018223748362944</v>
+        <v>1.0404520576813</v>
       </c>
       <c r="L20">
-        <v>1.012163986019387</v>
+        <v>1.046030367159856</v>
       </c>
       <c r="M20">
-        <v>1.018126829569455</v>
+        <v>1.056847967496077</v>
       </c>
       <c r="N20">
-        <v>1.006117232214448</v>
+        <v>1.017033017191158</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9724478988346212</v>
+        <v>1.031963367239783</v>
       </c>
       <c r="D21">
-        <v>0.9982130938565802</v>
+        <v>1.036005264307082</v>
       </c>
       <c r="E21">
-        <v>0.9912880932111257</v>
+        <v>1.041406385912705</v>
       </c>
       <c r="F21">
-        <v>0.9965924521452706</v>
+        <v>1.05210699962726</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037818523133618</v>
+        <v>1.036053678481757</v>
       </c>
       <c r="J21">
-        <v>1.003144500848382</v>
+        <v>1.038578360329558</v>
       </c>
       <c r="K21">
-        <v>1.013228398987259</v>
+        <v>1.039585382840138</v>
       </c>
       <c r="L21">
-        <v>1.00643641664633</v>
+        <v>1.04496651913437</v>
       </c>
       <c r="M21">
-        <v>1.011638670421357</v>
+        <v>1.055628207495543</v>
       </c>
       <c r="N21">
-        <v>1.004194531040826</v>
+        <v>1.01668978458453</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9672801715297433</v>
+        <v>1.031076516058851</v>
       </c>
       <c r="D22">
-        <v>0.9942928864104639</v>
+        <v>1.035327174073527</v>
       </c>
       <c r="E22">
-        <v>0.9868816299209637</v>
+        <v>1.040605379700271</v>
       </c>
       <c r="F22">
-        <v>0.9916900633518846</v>
+        <v>1.051209285023154</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036006527506282</v>
+        <v>1.035821521145516</v>
       </c>
       <c r="J22">
-        <v>0.999526809004636</v>
+        <v>1.037943253480697</v>
       </c>
       <c r="K22">
-        <v>1.009978256526008</v>
+        <v>1.039038895125065</v>
       </c>
       <c r="L22">
-        <v>1.002717521987196</v>
+        <v>1.044296787175738</v>
       </c>
       <c r="M22">
-        <v>1.007427958941647</v>
+        <v>1.054860565549187</v>
       </c>
       <c r="N22">
-        <v>1.002944584924503</v>
+        <v>1.016473412928247</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9700362009719934</v>
+        <v>1.031546719036404</v>
       </c>
       <c r="D23">
-        <v>0.9963830622468492</v>
+        <v>1.035686730202064</v>
       </c>
       <c r="E23">
-        <v>0.989230618474629</v>
+        <v>1.041030031309727</v>
       </c>
       <c r="F23">
-        <v>0.9943034466536106</v>
+        <v>1.051685195515361</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03697417647129</v>
+        <v>1.035944795190389</v>
       </c>
       <c r="J23">
-        <v>1.001456317791822</v>
+        <v>1.038280046366456</v>
       </c>
       <c r="K23">
-        <v>1.011712031853478</v>
+        <v>1.039328748423068</v>
       </c>
       <c r="L23">
-        <v>1.004700643760585</v>
+        <v>1.044651905877747</v>
       </c>
       <c r="M23">
-        <v>1.009673154374815</v>
+        <v>1.055267577095022</v>
       </c>
       <c r="N23">
-        <v>1.003611265789473</v>
+        <v>1.01658816965336</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9805333122496878</v>
+        <v>1.033396411974604</v>
       </c>
       <c r="D24">
-        <v>1.004354665366058</v>
+        <v>1.037100334906157</v>
       </c>
       <c r="E24">
-        <v>0.9981993094034124</v>
+        <v>1.0427013471087</v>
       </c>
       <c r="F24">
-        <v>1.004281150227048</v>
+        <v>1.053558494194079</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040631375813871</v>
+        <v>1.036425615469087</v>
       </c>
       <c r="J24">
-        <v>1.008801871539095</v>
+        <v>1.039603525245078</v>
       </c>
       <c r="K24">
-        <v>1.018305737344177</v>
+        <v>1.04046656102434</v>
       </c>
       <c r="L24">
-        <v>1.012258121152182</v>
+        <v>1.046048188484278</v>
       </c>
       <c r="M24">
-        <v>1.018233498885479</v>
+        <v>1.056868404728545</v>
       </c>
       <c r="N24">
-        <v>1.006148806239875</v>
+        <v>1.01703876195365</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9920600910539034</v>
+        <v>1.035539991676988</v>
       </c>
       <c r="D25">
-        <v>1.013124283192391</v>
+        <v>1.038736797603319</v>
       </c>
       <c r="E25">
-        <v>1.008087825107803</v>
+        <v>1.044639866466996</v>
       </c>
       <c r="F25">
-        <v>1.015281943566713</v>
+        <v>1.055731795228489</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044586439005353</v>
+        <v>1.036974291841828</v>
       </c>
       <c r="J25">
-        <v>1.016857651542873</v>
+        <v>1.041134362696547</v>
       </c>
       <c r="K25">
-        <v>1.025522221460534</v>
+        <v>1.041780125879739</v>
       </c>
       <c r="L25">
-        <v>1.020561872133399</v>
+        <v>1.04766487127593</v>
       </c>
       <c r="M25">
-        <v>1.027647570121344</v>
+        <v>1.058722974438767</v>
       </c>
       <c r="N25">
-        <v>1.008930117743193</v>
+        <v>1.017559197785714</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_186/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_186/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037247498688274</v>
+        <v>1.000792459908894</v>
       </c>
       <c r="D2">
-        <v>1.040038911576404</v>
+        <v>1.01977602342592</v>
       </c>
       <c r="E2">
-        <v>1.046185339492755</v>
+        <v>1.015607315597158</v>
       </c>
       <c r="F2">
-        <v>1.057464861272936</v>
+        <v>1.023647728872754</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037404451523114</v>
+        <v>1.047531113846812</v>
       </c>
       <c r="J2">
-        <v>1.04235140735136</v>
+        <v>1.022949494441742</v>
       </c>
       <c r="K2">
-        <v>1.042822392844397</v>
+        <v>1.030966553969459</v>
       </c>
       <c r="L2">
-        <v>1.048951483728923</v>
+        <v>1.026853414928127</v>
       </c>
       <c r="M2">
-        <v>1.060199757814831</v>
+        <v>1.034787157868175</v>
       </c>
       <c r="N2">
-        <v>1.017972340960573</v>
+        <v>1.011031565855913</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038486082062498</v>
+        <v>1.006893913323276</v>
       </c>
       <c r="D3">
-        <v>1.040982579724296</v>
+        <v>1.024426332695219</v>
       </c>
       <c r="E3">
-        <v>1.04730713433842</v>
+        <v>1.020875997667991</v>
       </c>
       <c r="F3">
-        <v>1.058723065785535</v>
+        <v>1.02950996437732</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037712470755133</v>
+        <v>1.049557446484414</v>
       </c>
       <c r="J3">
-        <v>1.043232837882837</v>
+        <v>1.027198391424626</v>
       </c>
       <c r="K3">
-        <v>1.043576051588511</v>
+        <v>1.03475592969451</v>
       </c>
       <c r="L3">
-        <v>1.049884063743063</v>
+        <v>1.031248556315567</v>
       </c>
       <c r="M3">
-        <v>1.06127067532175</v>
+        <v>1.039778685311928</v>
       </c>
       <c r="N3">
-        <v>1.018271196780265</v>
+        <v>1.012495980702577</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039286984818398</v>
+        <v>1.010739728380056</v>
       </c>
       <c r="D4">
-        <v>1.041592381204417</v>
+        <v>1.027358071224187</v>
       </c>
       <c r="E4">
-        <v>1.04803285964516</v>
+        <v>1.024203225351923</v>
       </c>
       <c r="F4">
-        <v>1.059537152704852</v>
+        <v>1.033212385994557</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037909787517211</v>
+        <v>1.050819826642619</v>
       </c>
       <c r="J4">
-        <v>1.043802152602022</v>
+        <v>1.029872644191941</v>
       </c>
       <c r="K4">
-        <v>1.044062285126043</v>
+        <v>1.037137151082129</v>
       </c>
       <c r="L4">
-        <v>1.050486770549699</v>
+        <v>1.034018057533786</v>
       </c>
       <c r="M4">
-        <v>1.061963016229517</v>
+        <v>1.042925833624315</v>
       </c>
       <c r="N4">
-        <v>1.018464060556817</v>
+        <v>1.013417008879884</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039623556814952</v>
+        <v>1.012333178685953</v>
       </c>
       <c r="D5">
-        <v>1.041848547778179</v>
+        <v>1.02857284550576</v>
       </c>
       <c r="E5">
-        <v>1.048337920084305</v>
+        <v>1.025583258257578</v>
       </c>
       <c r="F5">
-        <v>1.059879383568444</v>
+        <v>1.03474813680041</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037992263028824</v>
+        <v>1.051339250029072</v>
       </c>
       <c r="J5">
-        <v>1.044041247492964</v>
+        <v>1.030979694712783</v>
       </c>
       <c r="K5">
-        <v>1.044266355514999</v>
+        <v>1.038121959638148</v>
       </c>
       <c r="L5">
-        <v>1.050739974099959</v>
+        <v>1.035165304800591</v>
       </c>
       <c r="M5">
-        <v>1.062253931026522</v>
+        <v>1.044229964781811</v>
       </c>
       <c r="N5">
-        <v>1.018545017407291</v>
+        <v>1.013798110738524</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039680061331485</v>
+        <v>1.012599389718507</v>
       </c>
       <c r="D6">
-        <v>1.041891547931129</v>
+        <v>1.028775793621713</v>
       </c>
       <c r="E6">
-        <v>1.048389139100642</v>
+        <v>1.025813898031492</v>
       </c>
       <c r="F6">
-        <v>1.059936845033516</v>
+        <v>1.035004807303016</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038006083104972</v>
+        <v>1.051425813080394</v>
       </c>
       <c r="J6">
-        <v>1.044081378253121</v>
+        <v>1.031164585745261</v>
       </c>
       <c r="K6">
-        <v>1.044300599797646</v>
+        <v>1.038286379006532</v>
       </c>
       <c r="L6">
-        <v>1.05078247790804</v>
+        <v>1.035356954271224</v>
       </c>
       <c r="M6">
-        <v>1.062302768430091</v>
+        <v>1.044447848273685</v>
       </c>
       <c r="N6">
-        <v>1.018558603213676</v>
+        <v>1.013861748949711</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039291482607738</v>
+        <v>1.010761110357329</v>
       </c>
       <c r="D7">
-        <v>1.041595804875502</v>
+        <v>1.027374371761708</v>
       </c>
       <c r="E7">
-        <v>1.048036936011101</v>
+        <v>1.02422173789789</v>
       </c>
       <c r="F7">
-        <v>1.05954172565221</v>
+        <v>1.033232987021654</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037910891430572</v>
+        <v>1.050826811021598</v>
       </c>
       <c r="J7">
-        <v>1.043805348360539</v>
+        <v>1.029887503285023</v>
       </c>
       <c r="K7">
-        <v>1.044065013267762</v>
+        <v>1.037150373151282</v>
       </c>
       <c r="L7">
-        <v>1.050490154551282</v>
+        <v>1.034033453123315</v>
       </c>
       <c r="M7">
-        <v>1.061966904016119</v>
+        <v>1.042943332763154</v>
       </c>
       <c r="N7">
-        <v>1.018465142789306</v>
+        <v>1.013422124816944</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037666197840369</v>
+        <v>1.002876357453547</v>
       </c>
       <c r="D8">
-        <v>1.040357998058212</v>
+        <v>1.021364115566711</v>
       </c>
       <c r="E8">
-        <v>1.046564487576098</v>
+        <v>1.017405416242529</v>
       </c>
       <c r="F8">
-        <v>1.057890090094765</v>
+        <v>1.025648330570034</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037508960882382</v>
+        <v>1.048226274893451</v>
       </c>
       <c r="J8">
-        <v>1.042649505061393</v>
+        <v>1.024401450445762</v>
       </c>
       <c r="K8">
-        <v>1.043077392960677</v>
+        <v>1.032262268272629</v>
       </c>
       <c r="L8">
-        <v>1.04926680658232</v>
+        <v>1.028354670605304</v>
       </c>
       <c r="M8">
-        <v>1.060561807658061</v>
+        <v>1.036491734773835</v>
       </c>
       <c r="N8">
-        <v>1.018073447770037</v>
+        <v>1.011532128546109</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034797959055134</v>
+        <v>0.9881435330374713</v>
       </c>
       <c r="D9">
-        <v>1.038170531784059</v>
+        <v>1.010142956956867</v>
       </c>
       <c r="E9">
-        <v>1.043968613915968</v>
+        <v>1.00472318805478</v>
       </c>
       <c r="F9">
-        <v>1.054979180875856</v>
+        <v>1.011538811654973</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036785426433533</v>
+        <v>1.043250593093403</v>
       </c>
       <c r="J9">
-        <v>1.040604806225259</v>
+        <v>1.014122034805538</v>
       </c>
       <c r="K9">
-        <v>1.041326045227452</v>
+        <v>1.023073587649774</v>
       </c>
       <c r="L9">
-        <v>1.047105414305955</v>
+        <v>1.017740096823099</v>
       </c>
       <c r="M9">
-        <v>1.058081064227437</v>
+        <v>1.024447413168544</v>
       </c>
       <c r="N9">
-        <v>1.017379260167118</v>
+        <v>1.007985878806594</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032882756908706</v>
+        <v>0.9776716841954856</v>
       </c>
       <c r="D10">
-        <v>1.03670791527883</v>
+        <v>1.00217996897443</v>
       </c>
       <c r="E10">
-        <v>1.042237095696887</v>
+        <v>0.9957509042286096</v>
       </c>
       <c r="F10">
-        <v>1.053038097385777</v>
+        <v>1.001557342356136</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036292761652366</v>
+        <v>1.039639146817986</v>
       </c>
       <c r="J10">
-        <v>1.039236226750822</v>
+        <v>1.006800078608911</v>
       </c>
       <c r="K10">
-        <v>1.040150986460655</v>
+        <v>1.016509974644285</v>
       </c>
       <c r="L10">
-        <v>1.045660556879343</v>
+        <v>1.010197303569931</v>
       </c>
       <c r="M10">
-        <v>1.056423905314185</v>
+        <v>1.015898535320892</v>
       </c>
       <c r="N10">
-        <v>1.016913770226659</v>
+        <v>1.00545738128587</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032052693821785</v>
+        <v>0.9729612940691197</v>
       </c>
       <c r="D11">
-        <v>1.036073547261255</v>
+        <v>0.998602781736201</v>
       </c>
       <c r="E11">
-        <v>1.041487082368079</v>
+        <v>0.99172631890589</v>
       </c>
       <c r="F11">
-        <v>1.052197443715698</v>
+        <v>0.9970799865560469</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036076979136745</v>
+        <v>1.037997964189164</v>
       </c>
       <c r="J11">
-        <v>1.03864230213143</v>
+        <v>1.003503840534901</v>
       </c>
       <c r="K11">
-        <v>1.03964037818607</v>
+        <v>1.01355109573744</v>
       </c>
       <c r="L11">
-        <v>1.045033962880994</v>
+        <v>1.006805969831824</v>
       </c>
       <c r="M11">
-        <v>1.05570552129141</v>
+        <v>1.012057180949041</v>
       </c>
       <c r="N11">
-        <v>1.016711561338837</v>
+        <v>1.004318677647897</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.031744252715099</v>
+        <v>0.9711831124468692</v>
       </c>
       <c r="D12">
-        <v>1.035837756031035</v>
+        <v>0.9972532420836699</v>
       </c>
       <c r="E12">
-        <v>1.041208453541143</v>
+        <v>0.9902088465298932</v>
       </c>
       <c r="F12">
-        <v>1.051885162040168</v>
+        <v>0.9953917617380212</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03599645821302</v>
+        <v>1.037376002899836</v>
       </c>
       <c r="J12">
-        <v>1.038421491612389</v>
+        <v>1.002259186369887</v>
       </c>
       <c r="K12">
-        <v>1.039450443481675</v>
+        <v>1.012433255519026</v>
       </c>
       <c r="L12">
-        <v>1.044801071497493</v>
+        <v>1.005526064768588</v>
       </c>
       <c r="M12">
-        <v>1.055438555436301</v>
+        <v>1.010607784075948</v>
       </c>
       <c r="N12">
-        <v>1.016636353887137</v>
+        <v>1.003888660342693</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.031810419805635</v>
+        <v>0.9715658655988038</v>
       </c>
       <c r="D13">
-        <v>1.0358883412585</v>
+        <v>0.99754368894544</v>
       </c>
       <c r="E13">
-        <v>1.041268222238441</v>
+        <v>0.9905353979871517</v>
       </c>
       <c r="F13">
-        <v>1.051952148715499</v>
+        <v>0.9957550600910841</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036013746966529</v>
+        <v>1.037509987151334</v>
       </c>
       <c r="J13">
-        <v>1.038468865323137</v>
+        <v>1.002527110687222</v>
       </c>
       <c r="K13">
-        <v>1.039491197457727</v>
+        <v>1.012673907130553</v>
       </c>
       <c r="L13">
-        <v>1.044851034151331</v>
+        <v>1.005801547392299</v>
       </c>
       <c r="M13">
-        <v>1.055495826260129</v>
+        <v>1.01091973187514</v>
       </c>
       <c r="N13">
-        <v>1.016652490588448</v>
+        <v>1.003981227620922</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032027200424902</v>
+        <v>0.9728149039558153</v>
       </c>
       <c r="D14">
-        <v>1.036054059931655</v>
+        <v>0.9984916616018384</v>
       </c>
       <c r="E14">
-        <v>1.041464051661182</v>
+        <v>0.9916013542640002</v>
       </c>
       <c r="F14">
-        <v>1.052171630950163</v>
+        <v>0.9969409612000089</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036070330798237</v>
+        <v>1.037946809124299</v>
       </c>
       <c r="J14">
-        <v>1.038624053966518</v>
+        <v>1.003401379365951</v>
       </c>
       <c r="K14">
-        <v>1.039624683683416</v>
+        <v>1.013459085430163</v>
       </c>
       <c r="L14">
-        <v>1.04501471500658</v>
+        <v>1.006700593390133</v>
       </c>
       <c r="M14">
-        <v>1.055683456395455</v>
+        <v>1.011937842944043</v>
       </c>
       <c r="N14">
-        <v>1.016705346671517</v>
+        <v>1.004283279000132</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032160750287488</v>
+        <v>0.9735806305590846</v>
       </c>
       <c r="D15">
-        <v>1.036156143596521</v>
+        <v>0.9990729363517469</v>
       </c>
       <c r="E15">
-        <v>1.041584703200056</v>
+        <v>0.9922550847542088</v>
       </c>
       <c r="F15">
-        <v>1.052306857743021</v>
+        <v>0.9976682462808251</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03610514495316</v>
+        <v>1.038214289745231</v>
       </c>
       <c r="J15">
-        <v>1.038719644185562</v>
+        <v>1.00393731331622</v>
       </c>
       <c r="K15">
-        <v>1.03970689285399</v>
+        <v>1.013940331970539</v>
       </c>
       <c r="L15">
-        <v>1.04511554471254</v>
+        <v>1.007251802762143</v>
       </c>
       <c r="M15">
-        <v>1.055799044741807</v>
+        <v>1.0125620974475</v>
       </c>
       <c r="N15">
-        <v>1.016737900035513</v>
+        <v>1.004468433647902</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032937828997576</v>
+        <v>0.9779804155343302</v>
       </c>
       <c r="D16">
-        <v>1.036749994029436</v>
+        <v>1.002414536869672</v>
       </c>
       <c r="E16">
-        <v>1.042286866057828</v>
+        <v>0.9960149301460005</v>
       </c>
       <c r="F16">
-        <v>1.053093885376495</v>
+        <v>1.001851067821176</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036307030627144</v>
+        <v>1.039746375776312</v>
       </c>
       <c r="J16">
-        <v>1.039275615571597</v>
+        <v>1.007016073790638</v>
       </c>
       <c r="K16">
-        <v>1.040184835787111</v>
+        <v>1.016703782526835</v>
       </c>
       <c r="L16">
-        <v>1.04570212143212</v>
+        <v>1.010419620428737</v>
       </c>
       <c r="M16">
-        <v>1.056471564549637</v>
+        <v>1.016150401171129</v>
       </c>
       <c r="N16">
-        <v>1.016927176445686</v>
+        <v>1.005531990905754</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033425061990233</v>
+        <v>0.9806917535884848</v>
       </c>
       <c r="D17">
-        <v>1.037122219674288</v>
+        <v>1.004475104309078</v>
       </c>
       <c r="E17">
-        <v>1.042727244546185</v>
+        <v>0.9983349470406924</v>
       </c>
       <c r="F17">
-        <v>1.053587524513196</v>
+        <v>1.004432044096163</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036433010236212</v>
+        <v>1.040686201446023</v>
       </c>
       <c r="J17">
-        <v>1.039624006704417</v>
+        <v>1.008912687770766</v>
       </c>
       <c r="K17">
-        <v>1.040484153694303</v>
+        <v>1.018405121086081</v>
       </c>
       <c r="L17">
-        <v>1.04606980671719</v>
+        <v>1.012372233787304</v>
       </c>
       <c r="M17">
-        <v>1.056893196383852</v>
+        <v>1.018362807236029</v>
       </c>
       <c r="N17">
-        <v>1.017045730438469</v>
+        <v>1.006187079739923</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033709182886432</v>
+        <v>0.98225640098738</v>
       </c>
       <c r="D18">
-        <v>1.037339231840437</v>
+        <v>1.005664638636083</v>
       </c>
       <c r="E18">
-        <v>1.042984085464424</v>
+        <v>0.9996748276195426</v>
       </c>
       <c r="F18">
-        <v>1.053875441415153</v>
+        <v>1.005922629375084</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036506255153428</v>
+        <v>1.041226970297084</v>
       </c>
       <c r="J18">
-        <v>1.03982709007227</v>
+        <v>1.010006915340516</v>
       </c>
       <c r="K18">
-        <v>1.040658567195293</v>
+        <v>1.019386304206127</v>
       </c>
       <c r="L18">
-        <v>1.046284178722657</v>
+        <v>1.013499176323884</v>
       </c>
       <c r="M18">
-        <v>1.05713904782586</v>
+        <v>1.019639907685219</v>
       </c>
       <c r="N18">
-        <v>1.017114818431177</v>
+        <v>1.006564985111349</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033806048341442</v>
+        <v>0.9827871105547532</v>
       </c>
       <c r="D19">
-        <v>1.037413210340158</v>
+        <v>1.006068183133695</v>
       </c>
       <c r="E19">
-        <v>1.043071657508176</v>
+        <v>1.000129474520552</v>
       </c>
       <c r="F19">
-        <v>1.053973611266851</v>
+        <v>1.006428412603692</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036531189625843</v>
+        <v>1.041410121497885</v>
       </c>
       <c r="J19">
-        <v>1.039896314724269</v>
+        <v>1.01037801710871</v>
       </c>
       <c r="K19">
-        <v>1.040718008299637</v>
+        <v>1.019719001620371</v>
       </c>
       <c r="L19">
-        <v>1.046357258391848</v>
+        <v>1.013881442008141</v>
       </c>
       <c r="M19">
-        <v>1.057222863438641</v>
+        <v>1.020073145148212</v>
       </c>
       <c r="N19">
-        <v>1.017138365060792</v>
+        <v>1.006693142557993</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033372794166961</v>
+        <v>0.9804026079063692</v>
       </c>
       <c r="D20">
-        <v>1.03708229381968</v>
+        <v>1.00425531307816</v>
       </c>
       <c r="E20">
-        <v>1.042679998643563</v>
+        <v>0.9980874226697106</v>
       </c>
       <c r="F20">
-        <v>1.053534563221308</v>
+        <v>1.004156678673924</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036419518321889</v>
+        <v>1.040586139071219</v>
       </c>
       <c r="J20">
-        <v>1.039586640814569</v>
+        <v>1.008710453476717</v>
       </c>
       <c r="K20">
-        <v>1.0404520576813</v>
+        <v>1.018223748362945</v>
       </c>
       <c r="L20">
-        <v>1.046030367159856</v>
+        <v>1.012163986019388</v>
       </c>
       <c r="M20">
-        <v>1.056847967496077</v>
+        <v>1.018126829569456</v>
       </c>
       <c r="N20">
-        <v>1.017033017191158</v>
+        <v>1.006117232214448</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.031963367239783</v>
+        <v>0.9724478988346207</v>
       </c>
       <c r="D21">
-        <v>1.036005264307082</v>
+        <v>0.9982130938565802</v>
       </c>
       <c r="E21">
-        <v>1.041406385912705</v>
+        <v>0.9912880932111252</v>
       </c>
       <c r="F21">
-        <v>1.05210699962726</v>
+        <v>0.99659245214527</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036053678481757</v>
+        <v>1.037818523133618</v>
       </c>
       <c r="J21">
-        <v>1.038578360329558</v>
+        <v>1.003144500848382</v>
       </c>
       <c r="K21">
-        <v>1.039585382840138</v>
+        <v>1.013228398987259</v>
       </c>
       <c r="L21">
-        <v>1.04496651913437</v>
+        <v>1.006436416646329</v>
       </c>
       <c r="M21">
-        <v>1.055628207495543</v>
+        <v>1.011638670421356</v>
       </c>
       <c r="N21">
-        <v>1.01668978458453</v>
+        <v>1.004194531040826</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031076516058851</v>
+        <v>0.9672801715297438</v>
       </c>
       <c r="D22">
-        <v>1.035327174073527</v>
+        <v>0.994292886410464</v>
       </c>
       <c r="E22">
-        <v>1.040605379700271</v>
+        <v>0.9868816299209642</v>
       </c>
       <c r="F22">
-        <v>1.051209285023154</v>
+        <v>0.9916900633518851</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035821521145516</v>
+        <v>1.036006527506282</v>
       </c>
       <c r="J22">
-        <v>1.037943253480697</v>
+        <v>0.9995268090046364</v>
       </c>
       <c r="K22">
-        <v>1.039038895125065</v>
+        <v>1.009978256526008</v>
       </c>
       <c r="L22">
-        <v>1.044296787175738</v>
+        <v>1.002717521987197</v>
       </c>
       <c r="M22">
-        <v>1.054860565549187</v>
+        <v>1.007427958941648</v>
       </c>
       <c r="N22">
-        <v>1.016473412928247</v>
+        <v>1.002944584924503</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031546719036404</v>
+        <v>0.9700362009719935</v>
       </c>
       <c r="D23">
-        <v>1.035686730202064</v>
+        <v>0.996383062246849</v>
       </c>
       <c r="E23">
-        <v>1.041030031309727</v>
+        <v>0.9892306184746295</v>
       </c>
       <c r="F23">
-        <v>1.051685195515361</v>
+        <v>0.9943034466536107</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035944795190389</v>
+        <v>1.03697417647129</v>
       </c>
       <c r="J23">
-        <v>1.038280046366456</v>
+        <v>1.001456317791822</v>
       </c>
       <c r="K23">
-        <v>1.039328748423068</v>
+        <v>1.011712031853478</v>
       </c>
       <c r="L23">
-        <v>1.044651905877747</v>
+        <v>1.004700643760585</v>
       </c>
       <c r="M23">
-        <v>1.055267577095022</v>
+        <v>1.009673154374815</v>
       </c>
       <c r="N23">
-        <v>1.01658816965336</v>
+        <v>1.003611265789473</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033396411974604</v>
+        <v>0.9805333122496873</v>
       </c>
       <c r="D24">
-        <v>1.037100334906157</v>
+        <v>1.004354665366057</v>
       </c>
       <c r="E24">
-        <v>1.0427013471087</v>
+        <v>0.9981993094034122</v>
       </c>
       <c r="F24">
-        <v>1.053558494194079</v>
+        <v>1.004281150227048</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036425615469087</v>
+        <v>1.040631375813871</v>
       </c>
       <c r="J24">
-        <v>1.039603525245078</v>
+        <v>1.008801871539094</v>
       </c>
       <c r="K24">
-        <v>1.04046656102434</v>
+        <v>1.018305737344177</v>
       </c>
       <c r="L24">
-        <v>1.046048188484278</v>
+        <v>1.012258121152182</v>
       </c>
       <c r="M24">
-        <v>1.056868404728545</v>
+        <v>1.018233498885479</v>
       </c>
       <c r="N24">
-        <v>1.01703876195365</v>
+        <v>1.006148806239874</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035539991676988</v>
+        <v>0.9920600910539018</v>
       </c>
       <c r="D25">
-        <v>1.038736797603319</v>
+        <v>1.01312428319239</v>
       </c>
       <c r="E25">
-        <v>1.044639866466996</v>
+        <v>1.008087825107801</v>
       </c>
       <c r="F25">
-        <v>1.055731795228489</v>
+        <v>1.015281943566712</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036974291841828</v>
+        <v>1.044586439005352</v>
       </c>
       <c r="J25">
-        <v>1.041134362696547</v>
+        <v>1.016857651542872</v>
       </c>
       <c r="K25">
-        <v>1.041780125879739</v>
+        <v>1.025522221460533</v>
       </c>
       <c r="L25">
-        <v>1.04766487127593</v>
+        <v>1.020561872133398</v>
       </c>
       <c r="M25">
-        <v>1.058722974438767</v>
+        <v>1.027647570121343</v>
       </c>
       <c r="N25">
-        <v>1.017559197785714</v>
+        <v>1.008930117743192</v>
       </c>
     </row>
   </sheetData>
